--- a/Lead2Opportunity.xlsx
+++ b/Lead2Opportunity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -402,141 +402,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the Opportunity Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Opportunity tab,  and click on existing Opportunity to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Opportunity Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field  Amount, value should be greater than 1000 to submit for Approval towards to the assigned approver  @ Valid value for required field  Amount, value should be greaterThan 50000 for Workflow Process.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   Amount field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for  Amount field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  Close Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   Close Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  Close Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  Closed </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   Closed field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  Closed field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for required field  New Customer  @ Valid value for required field  New Customer, value should be equals True for Workflow Process.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   New Customer field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  New Customer field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  Stage Name </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   Stage Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  Stage Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  Account Id </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   Account Id field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  Account Id field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Opportunity with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Opportunity is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Opportunity page, Click on 'Submit for Approval' button to Submit for Approval.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Opportunity tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Opportunitys displayed, select the appropriate Opportunity.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Opportunity details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down the Opportunity page to locate the 'Approval History' section.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Approve/Reject the record's request, Click on 'Approve/Reject' link.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request, Account:(Approver Name) Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In the 'Approve/Reject Approval Request' section, input comments if required.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input appropriate comments.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Approve' or the 'Reject' button to either Approve or Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to either 'Approve' or 'Reject' the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On performing either 'Approval' or 'Rejection' action, user is navigated to the Opportunity request page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -639,8 +504,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J26" totalsRowShown="0">
-  <x:autoFilter ref="A1:J26"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A1:J3" totalsRowShown="0">
+  <x:autoFilter ref="A1:J3"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -1689,7 +1554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J26"/>
+  <x:dimension ref="A1:J3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1697,12 +1562,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="204.700625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="123.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="107.550625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="51.410625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="48.700625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -1782,452 +1647,6 @@
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s"/>
-      <x:c r="J4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s"/>
-      <x:c r="J5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s"/>
-      <x:c r="J6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s"/>
-      <x:c r="J7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s"/>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s"/>
-      <x:c r="J8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s"/>
-      <x:c r="J9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s"/>
-      <x:c r="J10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s"/>
-      <x:c r="J11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s"/>
-      <x:c r="F14" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s"/>
-      <x:c r="J14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s"/>
-      <x:c r="F15" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s"/>
-      <x:c r="F16" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s"/>
-      <x:c r="F17" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s"/>
-      <x:c r="F19" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s"/>
-      <x:c r="F20" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
-      <x:c r="F21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
-      <x:c r="F24" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s"/>
-      <x:c r="B25" s="0" t="s"/>
-      <x:c r="C25" s="0" t="s"/>
-      <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s"/>
-      <x:c r="F25" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s"/>
-      <x:c r="F26" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
